--- a/data/Parcelles_terrain_periode.xlsx
+++ b/data/Parcelles_terrain_periode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\resultat_export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A264A5-ABEA-4791-A8C2-E07C64789B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B370BD-5E7A-454E-A370-A3DFC8E6AC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{71A60A91-FC78-41CE-B356-6DD3FA0EA351}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71A60A91-FC78-41CE-B356-6DD3FA0EA351}"/>
   </bookViews>
   <sheets>
     <sheet name="Parcelles_terrain_periode" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
-  <si>
-    <t>Communes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
   <si>
     <t>Ndoga Babacar</t>
   </si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>date de fin</t>
+  </si>
+  <si>
+    <t>Ratissage</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,30 +132,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -206,21 +192,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -234,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -242,13 +213,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -568,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6EE005-67F4-45A6-9D74-D72F9C9E4473}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,30 +548,26 @@
     <col min="2" max="2" width="24.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45517</v>
       </c>
@@ -611,17 +575,16 @@
         <v>45523</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>1176</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45530</v>
       </c>
@@ -629,17 +592,14 @@
         <v>45535</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
         <v>589</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="M3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45537</v>
       </c>
@@ -647,17 +607,14 @@
         <v>45542</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
         <v>1025</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="M4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45544</v>
       </c>
@@ -665,17 +622,14 @@
         <v>45547</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
         <v>428</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="M5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45552</v>
       </c>
@@ -683,17 +637,14 @@
         <v>45555</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
         <v>648</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="M6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45558</v>
       </c>
@@ -701,17 +652,14 @@
         <v>45562</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <v>599</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="M7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45621</v>
       </c>
@@ -719,17 +667,14 @@
         <v>45624</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3">
         <v>75</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="M8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45625</v>
       </c>
@@ -737,17 +682,14 @@
         <v>45631</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3">
         <v>153</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="M9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45625</v>
       </c>
@@ -755,17 +697,14 @@
         <v>45631</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3">
         <v>26</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="M10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45625</v>
       </c>
@@ -773,17 +712,14 @@
         <v>45631</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
         <v>58</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="M11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45632</v>
       </c>
@@ -791,14 +727,14 @@
         <v>45638</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3">
         <v>57</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45632</v>
       </c>
@@ -806,14 +742,14 @@
         <v>45638</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
         <v>127</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45632</v>
       </c>
@@ -821,14 +757,14 @@
         <v>45638</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
         <v>210</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45632</v>
       </c>
@@ -836,14 +772,14 @@
         <v>45638</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3">
         <v>229</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45639</v>
       </c>
@@ -851,12 +787,12 @@
         <v>45645</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
         <v>231</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -866,12 +802,12 @@
         <v>45645</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
         <v>210</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -881,12 +817,12 @@
         <v>45645</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
         <v>179</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
@@ -896,12 +832,12 @@
         <v>45645</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3">
         <v>466</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -911,12 +847,12 @@
         <v>45652</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
         <v>106</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -926,12 +862,12 @@
         <v>45652</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3">
         <v>202</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -941,12 +877,12 @@
         <v>45652</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3">
         <v>190</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -956,12 +892,12 @@
         <v>45652</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3">
         <v>514</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -971,12 +907,12 @@
         <v>45667</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
         <v>214</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
@@ -986,12 +922,12 @@
         <v>45667</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
         <v>295</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
@@ -1001,12 +937,12 @@
         <v>45667</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3">
         <v>342</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
@@ -1016,12 +952,12 @@
         <v>45674</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
         <v>310</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
@@ -1031,12 +967,12 @@
         <v>45674</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
         <v>203</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
@@ -1046,12 +982,12 @@
         <v>45674</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="3">
         <v>519</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
@@ -1061,13 +997,13 @@
         <v>45687</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="3">
         <v>315</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1078,13 +1014,13 @@
         <v>45687</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="3">
         <v>431</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1095,13 +1031,13 @@
         <v>45687</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="3">
         <v>628</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1112,13 +1048,13 @@
         <v>45694</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3">
         <v>283</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1129,13 +1065,13 @@
         <v>45694</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="3">
         <v>262</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1146,13 +1082,13 @@
         <v>45694</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="3">
         <v>403</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1163,13 +1099,13 @@
         <v>45701</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
         <v>194</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1180,13 +1116,13 @@
         <v>45701</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="3">
         <v>220</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1197,13 +1133,13 @@
         <v>45701</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="3">
         <v>294</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1214,12 +1150,14 @@
         <v>45708</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3">
         <v>211</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
@@ -1229,12 +1167,14 @@
         <v>45708</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="3">
         <v>263</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
@@ -1244,12 +1184,14 @@
         <v>45708</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3">
         <v>148</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
@@ -1259,12 +1201,14 @@
         <v>45715</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
         <v>88</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
@@ -1274,12 +1218,14 @@
         <v>45715</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="3">
         <v>161</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
@@ -1289,13 +1235,13 @@
         <v>45723</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="3">
         <v>236</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1306,13 +1252,13 @@
         <v>45730</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="3">
         <v>367</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1323,13 +1269,13 @@
         <v>45730</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="3">
         <v>201</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1340,13 +1286,13 @@
         <v>45738</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="3">
         <v>671</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1357,13 +1303,13 @@
         <v>45738</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="3">
         <v>415</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1374,13 +1320,13 @@
         <v>45743</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="3">
         <v>126</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1391,13 +1337,13 @@
         <v>45743</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="3">
         <v>302</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1408,13 +1354,13 @@
         <v>45757</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="3">
         <v>408</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1425,13 +1371,13 @@
         <v>45757</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="3">
         <v>218</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1442,13 +1388,13 @@
         <v>45764</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="3">
         <v>778</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -1459,13 +1405,13 @@
         <v>45764</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" s="3">
         <v>197</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -1476,13 +1422,13 @@
         <v>45771</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="3">
         <v>1727</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1493,13 +1439,13 @@
         <v>45771</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" s="3">
         <v>246</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -1510,13 +1456,13 @@
         <v>45771</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" s="3">
         <v>623</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -1527,13 +1473,13 @@
         <v>45778</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="3">
         <v>99</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -1544,13 +1490,13 @@
         <v>45778</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" s="3">
         <v>587</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1561,13 +1507,13 @@
         <v>45785</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="3">
         <v>833</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -1578,18 +1524,18 @@
         <v>45792</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" s="3">
         <v>832</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C62" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62" s="3">
         <f>SUM(D2:D61)</f>
@@ -1598,8 +1544,7 @@
       <c r="E62" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="M1:M2"/>
+  <mergeCells count="1">
     <mergeCell ref="E2:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
